--- a/Docs/03_詳細設計/0302_画面処理/画面処理（お小遣い情報画面_更新）.xlsx
+++ b/Docs/03_詳細設計/0302_画面処理/画面処理（お小遣い情報画面_更新）.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -208,6 +208,56 @@
     <rPh sb="6" eb="8">
       <t>セツゾク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金日</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reciveDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金時間</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reciveTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amounｔ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kind</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,6 +539,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,8 +563,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
@@ -592,7 +642,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="項目名"/>
-    <tableColumn id="3" name="物理項目名" dataDxfId="1"/>
+    <tableColumn id="3" name="物理項目名" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -604,7 +654,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="項目名"/>
-    <tableColumn id="3" name="物理項目名" dataDxfId="0"/>
+    <tableColumn id="3" name="物理項目名" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -948,20 +998,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -969,18 +1019,18 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1573,7 +1623,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1588,42 +1638,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24" t="str">
+      <c r="F1" s="26" t="str">
         <f>'処理フロー（お小遣い情報画面_更新）'!E$1</f>
         <v>お小遣い情報</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="str">
+      <c r="F2" s="27" t="str">
         <f>'処理フロー（お小遣い情報画面_更新）'!$E$2</f>
         <v>更新</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
@@ -1933,8 +1983,12 @@
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1949,8 +2003,12 @@
       <c r="B24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="17"/>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1965,7 +2023,12 @@
       <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="27"/>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1981,7 +2044,12 @@
       <c r="B26" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="27"/>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2163,7 +2231,7 @@
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
